--- a/INTLINE/data/534/MOSPI/KAPSARC/TAE_historical.xlsx
+++ b/INTLINE/data/534/MOSPI/KAPSARC/TAE_historical.xlsx
@@ -1,37 +1,246 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TAE" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="TAE" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
+  <si>
+    <t>1970</t>
+  </si>
+  <si>
+    <t>1971</t>
+  </si>
+  <si>
+    <t>1972</t>
+  </si>
+  <si>
+    <t>1973</t>
+  </si>
+  <si>
+    <t>1974</t>
+  </si>
+  <si>
+    <t>1975</t>
+  </si>
+  <si>
+    <t>1976</t>
+  </si>
+  <si>
+    <t>1977</t>
+  </si>
+  <si>
+    <t>1978</t>
+  </si>
+  <si>
+    <t>1979</t>
+  </si>
+  <si>
+    <t>1980</t>
+  </si>
+  <si>
+    <t>1981</t>
+  </si>
+  <si>
+    <t>1982</t>
+  </si>
+  <si>
+    <t>1983</t>
+  </si>
+  <si>
+    <t>1984</t>
+  </si>
+  <si>
+    <t>1985</t>
+  </si>
+  <si>
+    <t>1986</t>
+  </si>
+  <si>
+    <t>1987</t>
+  </si>
+  <si>
+    <t>1988</t>
+  </si>
+  <si>
+    <t>1989</t>
+  </si>
+  <si>
+    <t>1990</t>
+  </si>
+  <si>
+    <t>1991</t>
+  </si>
+  <si>
+    <t>1992</t>
+  </si>
+  <si>
+    <t>1993</t>
+  </si>
+  <si>
+    <t>1994</t>
+  </si>
+  <si>
+    <t>1995</t>
+  </si>
+  <si>
+    <t>1996</t>
+  </si>
+  <si>
+    <t>1997</t>
+  </si>
+  <si>
+    <t>1998</t>
+  </si>
+  <si>
+    <t>1999</t>
+  </si>
+  <si>
+    <t>2000</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2006-01-01</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2007-01-01</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2008-01-01</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2009-01-01</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2010-01-01</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2011-01-01</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2012-01-01</t>
+  </si>
+  <si>
+    <t>2013</t>
+  </si>
+  <si>
+    <t>2013-01-01</t>
+  </si>
+  <si>
+    <t>2014</t>
+  </si>
+  <si>
+    <t>2014-01-01</t>
+  </si>
+  <si>
+    <t>2015</t>
+  </si>
+  <si>
+    <t>2015-01-01</t>
+  </si>
+  <si>
+    <t>2016</t>
+  </si>
+  <si>
+    <t>2016-01-01</t>
+  </si>
+  <si>
+    <t>2017</t>
+  </si>
+  <si>
+    <t>2017-01-01</t>
+  </si>
+  <si>
+    <t>2018</t>
+  </si>
+  <si>
+    <t>2018-01-01</t>
+  </si>
+  <si>
+    <t>2019</t>
+  </si>
+  <si>
+    <t>2019-01-01</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>Electricity</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,10 +255,18 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -57,14 +274,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
@@ -353,338 +571,411 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:AZ2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:BN2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>index</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="n">
-        <v>1970</v>
-      </c>
-      <c r="C1" s="1" t="n">
-        <v>1971</v>
-      </c>
-      <c r="D1" s="1" t="n">
-        <v>1972</v>
-      </c>
-      <c r="E1" s="1" t="n">
-        <v>1973</v>
-      </c>
-      <c r="F1" s="1" t="n">
-        <v>1974</v>
-      </c>
-      <c r="G1" s="1" t="n">
-        <v>1975</v>
-      </c>
-      <c r="H1" s="1" t="n">
-        <v>1976</v>
-      </c>
-      <c r="I1" s="1" t="n">
-        <v>1977</v>
-      </c>
-      <c r="J1" s="1" t="n">
-        <v>1978</v>
-      </c>
-      <c r="K1" s="1" t="n">
-        <v>1979</v>
-      </c>
-      <c r="L1" s="1" t="n">
-        <v>1980</v>
-      </c>
-      <c r="M1" s="1" t="n">
-        <v>1981</v>
-      </c>
-      <c r="N1" s="1" t="n">
-        <v>1982</v>
-      </c>
-      <c r="O1" s="1" t="n">
-        <v>1983</v>
-      </c>
-      <c r="P1" s="1" t="n">
-        <v>1984</v>
-      </c>
-      <c r="Q1" s="1" t="n">
-        <v>1985</v>
-      </c>
-      <c r="R1" s="1" t="n">
-        <v>1986</v>
-      </c>
-      <c r="S1" s="1" t="n">
-        <v>1987</v>
-      </c>
-      <c r="T1" s="1" t="n">
-        <v>1988</v>
-      </c>
-      <c r="U1" s="1" t="n">
-        <v>1989</v>
-      </c>
-      <c r="V1" s="1" t="n">
-        <v>1990</v>
-      </c>
-      <c r="W1" s="1" t="n">
-        <v>1991</v>
-      </c>
-      <c r="X1" s="1" t="n">
-        <v>1992</v>
-      </c>
-      <c r="Y1" s="1" t="n">
-        <v>1993</v>
-      </c>
-      <c r="Z1" s="1" t="n">
-        <v>1994</v>
-      </c>
-      <c r="AA1" s="1" t="n">
-        <v>1995</v>
-      </c>
-      <c r="AB1" s="1" t="n">
-        <v>1996</v>
-      </c>
-      <c r="AC1" s="1" t="n">
-        <v>1997</v>
-      </c>
-      <c r="AD1" s="1" t="n">
-        <v>1998</v>
-      </c>
-      <c r="AE1" s="1" t="n">
-        <v>1999</v>
-      </c>
-      <c r="AF1" s="1" t="n">
-        <v>2000</v>
-      </c>
-      <c r="AG1" s="1" t="n">
-        <v>2001</v>
-      </c>
-      <c r="AH1" s="1" t="n">
-        <v>2002</v>
-      </c>
-      <c r="AI1" s="1" t="n">
-        <v>2003</v>
-      </c>
-      <c r="AJ1" s="1" t="n">
-        <v>2004</v>
-      </c>
-      <c r="AK1" s="1" t="n">
-        <v>2005</v>
-      </c>
-      <c r="AL1" s="1" t="n">
-        <v>2006</v>
-      </c>
-      <c r="AM1" s="1" t="n">
-        <v>2007</v>
-      </c>
-      <c r="AN1" s="1" t="n">
-        <v>2008</v>
-      </c>
-      <c r="AO1" s="1" t="n">
-        <v>2009</v>
-      </c>
-      <c r="AP1" s="1" t="n">
-        <v>2010</v>
-      </c>
-      <c r="AQ1" s="1" t="n">
-        <v>2011</v>
-      </c>
-      <c r="AR1" s="1" t="n">
-        <v>2012</v>
-      </c>
-      <c r="AS1" s="1" t="n">
-        <v>2013</v>
-      </c>
-      <c r="AT1" s="1" t="n">
-        <v>2014</v>
-      </c>
-      <c r="AU1" s="1" t="n">
-        <v>2015</v>
-      </c>
-      <c r="AV1" s="1" t="n">
-        <v>2016</v>
-      </c>
-      <c r="AW1" s="1" t="n">
-        <v>2017</v>
-      </c>
-      <c r="AX1" s="1" t="n">
-        <v>2018</v>
-      </c>
-      <c r="AY1" s="1" t="n">
-        <v>2019</v>
-      </c>
-      <c r="AZ1" s="1" t="n">
-        <v>2020</v>
+    <row r="1" spans="1:66">
+      <c r="A1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BL1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BM1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BN1" s="1" t="s">
+        <v>64</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>Electricity</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
+    <row r="2" spans="1:66">
+      <c r="A2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2">
         <v>27666</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>29214</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>28329</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>31368</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>30081</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2">
         <v>35928</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H2">
         <v>38088</v>
       </c>
-      <c r="I2" t="n">
+      <c r="I2">
         <v>40279</v>
       </c>
-      <c r="J2" t="n">
+      <c r="J2">
         <v>49929</v>
       </c>
-      <c r="K2" t="n">
+      <c r="K2">
         <v>48354</v>
       </c>
-      <c r="L2" t="n">
+      <c r="L2">
         <v>49543</v>
       </c>
-      <c r="M2" t="n">
+      <c r="M2">
         <v>52586</v>
       </c>
-      <c r="N2" t="n">
+      <c r="N2">
         <v>50396</v>
       </c>
-      <c r="O2" t="n">
+      <c r="O2">
         <v>53500</v>
       </c>
-      <c r="P2" t="n">
+      <c r="P2">
         <v>58023</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="Q2">
         <v>56003</v>
       </c>
-      <c r="R2" t="n">
+      <c r="R2">
         <v>58862</v>
       </c>
-      <c r="S2" t="n">
+      <c r="S2">
         <v>52479</v>
       </c>
-      <c r="T2" t="n">
+      <c r="T2">
         <v>63690</v>
       </c>
-      <c r="U2" t="n">
+      <c r="U2">
         <v>66741</v>
       </c>
-      <c r="V2" t="n">
+      <c r="V2">
         <v>77782</v>
       </c>
-      <c r="W2" t="n">
+      <c r="W2">
         <v>78282</v>
       </c>
-      <c r="X2" t="n">
+      <c r="X2">
         <v>76595</v>
       </c>
-      <c r="Y2" t="n">
+      <c r="Y2">
         <v>75861</v>
       </c>
-      <c r="Z2" t="n">
+      <c r="Z2">
         <v>88360</v>
       </c>
-      <c r="AA2" t="n">
+      <c r="AA2">
         <v>80561</v>
       </c>
-      <c r="AB2" t="n">
+      <c r="AB2">
         <v>77972</v>
       </c>
-      <c r="AC2" t="n">
+      <c r="AC2">
         <v>84665</v>
       </c>
-      <c r="AD2" t="n">
+      <c r="AD2">
         <v>94846</v>
       </c>
-      <c r="AE2" t="n">
+      <c r="AE2">
         <v>94005</v>
       </c>
-      <c r="AF2" t="n">
+      <c r="AF2">
         <v>471868</v>
       </c>
-      <c r="AG2" t="n">
+      <c r="AG2">
         <v>93054</v>
       </c>
-      <c r="AH2" t="n">
+      <c r="AH2">
         <v>83404</v>
       </c>
-      <c r="AI2" t="n">
+      <c r="AI2">
         <v>93022</v>
       </c>
-      <c r="AJ2" t="n">
+      <c r="AJ2">
         <v>101621</v>
       </c>
-      <c r="AK2" t="n">
+      <c r="AK2">
         <v>592194</v>
       </c>
-      <c r="AL2" t="n">
+      <c r="AL2">
         <v>639008</v>
       </c>
-      <c r="AM2" t="n">
+      <c r="AM2">
+        <v>639008</v>
+      </c>
+      <c r="AN2">
         <v>689780</v>
       </c>
-      <c r="AN2" t="n">
+      <c r="AO2">
+        <v>689780</v>
+      </c>
+      <c r="AP2">
         <v>707945</v>
       </c>
-      <c r="AO2" t="n">
+      <c r="AQ2">
+        <v>707945</v>
+      </c>
+      <c r="AR2">
         <v>763519</v>
       </c>
-      <c r="AP2" t="n">
+      <c r="AS2">
+        <v>763519</v>
+      </c>
+      <c r="AT2">
         <v>811635</v>
       </c>
-      <c r="AQ2" t="n">
+      <c r="AU2">
+        <v>811635</v>
+      </c>
+      <c r="AV2">
         <v>881466</v>
       </c>
-      <c r="AR2" t="n">
+      <c r="AW2">
+        <v>881466</v>
+      </c>
+      <c r="AX2">
         <v>921229</v>
       </c>
-      <c r="AS2" t="n">
+      <c r="AY2">
+        <v>921229</v>
+      </c>
+      <c r="AZ2">
         <v>974436</v>
       </c>
-      <c r="AT2" t="n">
+      <c r="BA2">
+        <v>974436</v>
+      </c>
+      <c r="BB2">
         <v>1054354.92</v>
       </c>
-      <c r="AU2" t="n">
+      <c r="BC2">
+        <v>1054354.92</v>
+      </c>
+      <c r="BD2">
         <v>1104228.3316495</v>
       </c>
-      <c r="AV2" t="n">
+      <c r="BE2">
+        <v>1104228.3316495</v>
+      </c>
+      <c r="BF2">
         <v>1163290.2191602</v>
       </c>
-      <c r="AW2" t="n">
+      <c r="BG2">
+        <v>1163290.2191602</v>
+      </c>
+      <c r="BH2">
         <v>1232505.29786395</v>
       </c>
-      <c r="AX2" t="n">
+      <c r="BI2">
+        <v>1232505.29786395</v>
+      </c>
+      <c r="BJ2">
         <v>1307684.57121994</v>
       </c>
-      <c r="AY2" t="n">
+      <c r="BK2">
+        <v>1307684.57121994</v>
+      </c>
+      <c r="BL2">
         <v>1311175.61502285</v>
       </c>
-      <c r="AZ2" t="inlineStr"/>
+      <c r="BM2">
+        <v>1311175.61502285</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/INTLINE/data/534/MOSPI/KAPSARC/TAE_historical.xlsx
+++ b/INTLINE/data/534/MOSPI/KAPSARC/TAE_historical.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DR2"/>
+  <dimension ref="A1:ET2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -579,400 +579,540 @@
       </c>
       <c r="AQ1" s="1" t="inlineStr">
         <is>
+          <t>2006</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>2006</t>
+        </is>
+      </c>
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
           <t>2006-01-01</t>
         </is>
       </c>
-      <c r="AR1" s="1" t="inlineStr">
+      <c r="AT1" s="1" t="inlineStr">
         <is>
           <t>2007</t>
         </is>
       </c>
-      <c r="AS1" s="1" t="inlineStr">
+      <c r="AU1" s="1" t="inlineStr">
         <is>
           <t>2007</t>
         </is>
       </c>
-      <c r="AT1" s="1" t="inlineStr">
+      <c r="AV1" s="1" t="inlineStr">
         <is>
           <t>2007</t>
         </is>
       </c>
-      <c r="AU1" s="1" t="inlineStr">
+      <c r="AW1" s="1" t="inlineStr">
         <is>
           <t>2007</t>
         </is>
       </c>
-      <c r="AV1" s="1" t="inlineStr">
+      <c r="AX1" s="1" t="inlineStr">
         <is>
           <t>2007</t>
         </is>
       </c>
-      <c r="AW1" s="1" t="inlineStr">
+      <c r="AY1" s="1" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="AZ1" s="1" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="BA1" s="1" t="inlineStr">
         <is>
           <t>2007-01-01</t>
         </is>
       </c>
-      <c r="AX1" s="1" t="inlineStr">
+      <c r="BB1" s="1" t="inlineStr">
         <is>
           <t>2008</t>
         </is>
       </c>
-      <c r="AY1" s="1" t="inlineStr">
+      <c r="BC1" s="1" t="inlineStr">
         <is>
           <t>2008</t>
         </is>
       </c>
-      <c r="AZ1" s="1" t="inlineStr">
+      <c r="BD1" s="1" t="inlineStr">
         <is>
           <t>2008</t>
         </is>
       </c>
-      <c r="BA1" s="1" t="inlineStr">
+      <c r="BE1" s="1" t="inlineStr">
         <is>
           <t>2008</t>
         </is>
       </c>
-      <c r="BB1" s="1" t="inlineStr">
+      <c r="BF1" s="1" t="inlineStr">
         <is>
           <t>2008</t>
         </is>
       </c>
-      <c r="BC1" s="1" t="inlineStr">
+      <c r="BG1" s="1" t="inlineStr">
+        <is>
+          <t>2008</t>
+        </is>
+      </c>
+      <c r="BH1" s="1" t="inlineStr">
+        <is>
+          <t>2008</t>
+        </is>
+      </c>
+      <c r="BI1" s="1" t="inlineStr">
         <is>
           <t>2008-01-01</t>
         </is>
       </c>
-      <c r="BD1" s="1" t="inlineStr">
+      <c r="BJ1" s="1" t="inlineStr">
         <is>
           <t>2009</t>
         </is>
       </c>
-      <c r="BE1" s="1" t="inlineStr">
+      <c r="BK1" s="1" t="inlineStr">
         <is>
           <t>2009</t>
         </is>
       </c>
-      <c r="BF1" s="1" t="inlineStr">
+      <c r="BL1" s="1" t="inlineStr">
         <is>
           <t>2009</t>
         </is>
       </c>
-      <c r="BG1" s="1" t="inlineStr">
+      <c r="BM1" s="1" t="inlineStr">
         <is>
           <t>2009</t>
         </is>
       </c>
-      <c r="BH1" s="1" t="inlineStr">
+      <c r="BN1" s="1" t="inlineStr">
         <is>
           <t>2009</t>
         </is>
       </c>
-      <c r="BI1" s="1" t="inlineStr">
+      <c r="BO1" s="1" t="inlineStr">
+        <is>
+          <t>2009</t>
+        </is>
+      </c>
+      <c r="BP1" s="1" t="inlineStr">
+        <is>
+          <t>2009</t>
+        </is>
+      </c>
+      <c r="BQ1" s="1" t="inlineStr">
         <is>
           <t>2009-01-01</t>
         </is>
       </c>
-      <c r="BJ1" s="1" t="inlineStr">
+      <c r="BR1" s="1" t="inlineStr">
         <is>
           <t>2010</t>
         </is>
       </c>
-      <c r="BK1" s="1" t="inlineStr">
+      <c r="BS1" s="1" t="inlineStr">
         <is>
           <t>2010</t>
         </is>
       </c>
-      <c r="BL1" s="1" t="inlineStr">
+      <c r="BT1" s="1" t="inlineStr">
         <is>
           <t>2010</t>
         </is>
       </c>
-      <c r="BM1" s="1" t="inlineStr">
+      <c r="BU1" s="1" t="inlineStr">
         <is>
           <t>2010</t>
         </is>
       </c>
-      <c r="BN1" s="1" t="inlineStr">
+      <c r="BV1" s="1" t="inlineStr">
         <is>
           <t>2010</t>
         </is>
       </c>
-      <c r="BO1" s="1" t="inlineStr">
+      <c r="BW1" s="1" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
+      </c>
+      <c r="BX1" s="1" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
+      </c>
+      <c r="BY1" s="1" t="inlineStr">
         <is>
           <t>2010-01-01</t>
         </is>
       </c>
-      <c r="BP1" s="1" t="inlineStr">
+      <c r="BZ1" s="1" t="inlineStr">
         <is>
           <t>2011</t>
         </is>
       </c>
-      <c r="BQ1" s="1" t="inlineStr">
+      <c r="CA1" s="1" t="inlineStr">
         <is>
           <t>2011</t>
         </is>
       </c>
-      <c r="BR1" s="1" t="inlineStr">
+      <c r="CB1" s="1" t="inlineStr">
         <is>
           <t>2011</t>
         </is>
       </c>
-      <c r="BS1" s="1" t="inlineStr">
+      <c r="CC1" s="1" t="inlineStr">
         <is>
           <t>2011</t>
         </is>
       </c>
-      <c r="BT1" s="1" t="inlineStr">
+      <c r="CD1" s="1" t="inlineStr">
         <is>
           <t>2011</t>
         </is>
       </c>
-      <c r="BU1" s="1" t="inlineStr">
+      <c r="CE1" s="1" t="inlineStr">
+        <is>
+          <t>2011</t>
+        </is>
+      </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>2011</t>
+        </is>
+      </c>
+      <c r="CG1" s="1" t="inlineStr">
         <is>
           <t>2011-01-01</t>
         </is>
       </c>
-      <c r="BV1" s="1" t="inlineStr">
+      <c r="CH1" s="1" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="BW1" s="1" t="inlineStr">
+      <c r="CI1" s="1" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="BX1" s="1" t="inlineStr">
+      <c r="CJ1" s="1" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="BY1" s="1" t="inlineStr">
+      <c r="CK1" s="1" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="BZ1" s="1" t="inlineStr">
+      <c r="CL1" s="1" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="CA1" s="1" t="inlineStr">
+      <c r="CM1" s="1" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="CN1" s="1" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="CO1" s="1" t="inlineStr">
         <is>
           <t>2012-01-01</t>
         </is>
       </c>
-      <c r="CB1" s="1" t="inlineStr">
+      <c r="CP1" s="1" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="CC1" s="1" t="inlineStr">
+      <c r="CQ1" s="1" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="CD1" s="1" t="inlineStr">
+      <c r="CR1" s="1" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="CE1" s="1" t="inlineStr">
+      <c r="CS1" s="1" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="CF1" s="1" t="inlineStr">
+      <c r="CT1" s="1" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="CG1" s="1" t="inlineStr">
+      <c r="CU1" s="1" t="inlineStr">
+        <is>
+          <t>2013</t>
+        </is>
+      </c>
+      <c r="CV1" s="1" t="inlineStr">
+        <is>
+          <t>2013</t>
+        </is>
+      </c>
+      <c r="CW1" s="1" t="inlineStr">
         <is>
           <t>2013-01-01</t>
         </is>
       </c>
-      <c r="CH1" s="1" t="inlineStr">
+      <c r="CX1" s="1" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="CI1" s="1" t="inlineStr">
+      <c r="CY1" s="1" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="CJ1" s="1" t="inlineStr">
+      <c r="CZ1" s="1" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="CK1" s="1" t="inlineStr">
+      <c r="DA1" s="1" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="CL1" s="1" t="inlineStr">
+      <c r="DB1" s="1" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="CM1" s="1" t="inlineStr">
+      <c r="DC1" s="1" t="inlineStr">
+        <is>
+          <t>2014</t>
+        </is>
+      </c>
+      <c r="DD1" s="1" t="inlineStr">
+        <is>
+          <t>2014</t>
+        </is>
+      </c>
+      <c r="DE1" s="1" t="inlineStr">
         <is>
           <t>2014-01-01</t>
         </is>
       </c>
-      <c r="CN1" s="1" t="inlineStr">
+      <c r="DF1" s="1" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="CO1" s="1" t="inlineStr">
+      <c r="DG1" s="1" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="CP1" s="1" t="inlineStr">
+      <c r="DH1" s="1" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="CQ1" s="1" t="inlineStr">
+      <c r="DI1" s="1" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="CR1" s="1" t="inlineStr">
+      <c r="DJ1" s="1" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="CS1" s="1" t="inlineStr">
+      <c r="DK1" s="1" t="inlineStr">
+        <is>
+          <t>2015</t>
+        </is>
+      </c>
+      <c r="DL1" s="1" t="inlineStr">
+        <is>
+          <t>2015</t>
+        </is>
+      </c>
+      <c r="DM1" s="1" t="inlineStr">
         <is>
           <t>2015-01-01</t>
         </is>
       </c>
-      <c r="CT1" s="1" t="inlineStr">
+      <c r="DN1" s="1" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="CU1" s="1" t="inlineStr">
+      <c r="DO1" s="1" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="CV1" s="1" t="inlineStr">
+      <c r="DP1" s="1" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="CW1" s="1" t="inlineStr">
+      <c r="DQ1" s="1" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="CX1" s="1" t="inlineStr">
+      <c r="DR1" s="1" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="CY1" s="1" t="inlineStr">
+      <c r="DS1" s="1" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="DT1" s="1" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="DU1" s="1" t="inlineStr">
         <is>
           <t>2016-01-01</t>
         </is>
       </c>
-      <c r="CZ1" s="1" t="inlineStr">
+      <c r="DV1" s="1" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="DA1" s="1" t="inlineStr">
+      <c r="DW1" s="1" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="DB1" s="1" t="inlineStr">
+      <c r="DX1" s="1" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="DC1" s="1" t="inlineStr">
+      <c r="DY1" s="1" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="DD1" s="1" t="inlineStr">
+      <c r="DZ1" s="1" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="DE1" s="1" t="inlineStr">
+      <c r="EA1" s="1" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="EB1" s="1" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="EC1" s="1" t="inlineStr">
         <is>
           <t>2017-01-01</t>
         </is>
       </c>
-      <c r="DF1" s="1" t="inlineStr">
+      <c r="ED1" s="1" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="DG1" s="1" t="inlineStr">
+      <c r="EE1" s="1" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="DH1" s="1" t="inlineStr">
+      <c r="EF1" s="1" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="DI1" s="1" t="inlineStr">
+      <c r="EG1" s="1" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="DJ1" s="1" t="inlineStr">
+      <c r="EH1" s="1" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="DK1" s="1" t="inlineStr">
+      <c r="EI1" s="1" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="EJ1" s="1" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="EK1" s="1" t="inlineStr">
         <is>
           <t>2018-01-01</t>
         </is>
       </c>
-      <c r="DL1" s="1" t="inlineStr">
+      <c r="EL1" s="1" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="DM1" s="1" t="inlineStr">
+      <c r="EM1" s="1" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="DN1" s="1" t="inlineStr">
+      <c r="EN1" s="1" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="DO1" s="1" t="inlineStr">
+      <c r="EO1" s="1" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="DP1" s="1" t="inlineStr">
+      <c r="EP1" s="1" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="DQ1" s="1" t="inlineStr">
+      <c r="EQ1" s="1" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+      <c r="ER1" s="1" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+      <c r="ES1" s="1" t="inlineStr">
         <is>
           <t>2019-01-01</t>
         </is>
       </c>
-      <c r="DR1" s="1" t="inlineStr">
+      <c r="ET1" s="1" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
@@ -1111,10 +1251,10 @@
         <v>639008</v>
       </c>
       <c r="AR2" t="n">
-        <v>689780</v>
+        <v>639008</v>
       </c>
       <c r="AS2" t="n">
-        <v>689780</v>
+        <v>639008</v>
       </c>
       <c r="AT2" t="n">
         <v>689780</v>
@@ -1129,16 +1269,16 @@
         <v>689780</v>
       </c>
       <c r="AX2" t="n">
-        <v>707945</v>
+        <v>689780</v>
       </c>
       <c r="AY2" t="n">
-        <v>707945</v>
+        <v>689780</v>
       </c>
       <c r="AZ2" t="n">
-        <v>707945</v>
+        <v>689780</v>
       </c>
       <c r="BA2" t="n">
-        <v>707945</v>
+        <v>689780</v>
       </c>
       <c r="BB2" t="n">
         <v>707945</v>
@@ -1147,204 +1287,288 @@
         <v>707945</v>
       </c>
       <c r="BD2" t="n">
+        <v>707945</v>
+      </c>
+      <c r="BE2" t="n">
+        <v>707945</v>
+      </c>
+      <c r="BF2" t="n">
+        <v>707945</v>
+      </c>
+      <c r="BG2" t="n">
+        <v>707945</v>
+      </c>
+      <c r="BH2" t="n">
+        <v>707945</v>
+      </c>
+      <c r="BI2" t="n">
+        <v>707945</v>
+      </c>
+      <c r="BJ2" t="n">
         <v>763519</v>
       </c>
-      <c r="BE2" t="n">
+      <c r="BK2" t="n">
         <v>763519</v>
       </c>
-      <c r="BF2" t="n">
+      <c r="BL2" t="n">
         <v>763519</v>
       </c>
-      <c r="BG2" t="n">
+      <c r="BM2" t="n">
         <v>763519</v>
       </c>
-      <c r="BH2" t="n">
+      <c r="BN2" t="n">
         <v>763519</v>
       </c>
-      <c r="BI2" t="n">
+      <c r="BO2" t="n">
         <v>763519</v>
       </c>
-      <c r="BJ2" t="n">
+      <c r="BP2" t="n">
+        <v>763519</v>
+      </c>
+      <c r="BQ2" t="n">
+        <v>763519</v>
+      </c>
+      <c r="BR2" t="n">
         <v>811635</v>
       </c>
-      <c r="BK2" t="n">
+      <c r="BS2" t="n">
         <v>811635</v>
       </c>
-      <c r="BL2" t="n">
+      <c r="BT2" t="n">
         <v>811635</v>
       </c>
-      <c r="BM2" t="n">
+      <c r="BU2" t="n">
         <v>811635</v>
       </c>
-      <c r="BN2" t="n">
+      <c r="BV2" t="n">
         <v>811635</v>
       </c>
-      <c r="BO2" t="n">
+      <c r="BW2" t="n">
         <v>811635</v>
       </c>
-      <c r="BP2" t="n">
+      <c r="BX2" t="n">
+        <v>811635</v>
+      </c>
+      <c r="BY2" t="n">
+        <v>811635</v>
+      </c>
+      <c r="BZ2" t="n">
         <v>881466</v>
       </c>
-      <c r="BQ2" t="n">
+      <c r="CA2" t="n">
         <v>881466</v>
       </c>
-      <c r="BR2" t="n">
+      <c r="CB2" t="n">
         <v>881466</v>
       </c>
-      <c r="BS2" t="n">
+      <c r="CC2" t="n">
         <v>881466</v>
       </c>
-      <c r="BT2" t="n">
+      <c r="CD2" t="n">
         <v>881466</v>
       </c>
-      <c r="BU2" t="n">
+      <c r="CE2" t="n">
         <v>881466</v>
       </c>
-      <c r="BV2" t="n">
+      <c r="CF2" t="n">
+        <v>881466</v>
+      </c>
+      <c r="CG2" t="n">
+        <v>881466</v>
+      </c>
+      <c r="CH2" t="n">
         <v>921229</v>
       </c>
-      <c r="BW2" t="n">
+      <c r="CI2" t="n">
         <v>921229</v>
       </c>
-      <c r="BX2" t="n">
+      <c r="CJ2" t="n">
         <v>921229</v>
       </c>
-      <c r="BY2" t="n">
+      <c r="CK2" t="n">
         <v>921229</v>
       </c>
-      <c r="BZ2" t="n">
+      <c r="CL2" t="n">
         <v>921229</v>
       </c>
-      <c r="CA2" t="n">
+      <c r="CM2" t="n">
         <v>921229</v>
       </c>
-      <c r="CB2" t="n">
+      <c r="CN2" t="n">
+        <v>921229</v>
+      </c>
+      <c r="CO2" t="n">
+        <v>921229</v>
+      </c>
+      <c r="CP2" t="n">
         <v>974436</v>
       </c>
-      <c r="CC2" t="n">
+      <c r="CQ2" t="n">
         <v>974436</v>
       </c>
-      <c r="CD2" t="n">
+      <c r="CR2" t="n">
         <v>974436</v>
       </c>
-      <c r="CE2" t="n">
+      <c r="CS2" t="n">
         <v>974436</v>
       </c>
-      <c r="CF2" t="n">
+      <c r="CT2" t="n">
         <v>974436</v>
       </c>
-      <c r="CG2" t="n">
+      <c r="CU2" t="n">
         <v>974436</v>
       </c>
-      <c r="CH2" t="n">
+      <c r="CV2" t="n">
+        <v>974436</v>
+      </c>
+      <c r="CW2" t="n">
+        <v>974436</v>
+      </c>
+      <c r="CX2" t="n">
         <v>1054354.92</v>
       </c>
-      <c r="CI2" t="n">
+      <c r="CY2" t="n">
         <v>1054354.92</v>
       </c>
-      <c r="CJ2" t="n">
+      <c r="CZ2" t="n">
         <v>1054354.92</v>
       </c>
-      <c r="CK2" t="n">
+      <c r="DA2" t="n">
         <v>1054354.92</v>
       </c>
-      <c r="CL2" t="n">
+      <c r="DB2" t="n">
         <v>1054354.92</v>
       </c>
-      <c r="CM2" t="n">
+      <c r="DC2" t="n">
         <v>1054354.92</v>
       </c>
-      <c r="CN2" t="n">
+      <c r="DD2" t="n">
+        <v>1054354.92</v>
+      </c>
+      <c r="DE2" t="n">
+        <v>1054354.92</v>
+      </c>
+      <c r="DF2" t="n">
         <v>1104228.3316495</v>
       </c>
-      <c r="CO2" t="n">
+      <c r="DG2" t="n">
         <v>1104228.3316495</v>
       </c>
-      <c r="CP2" t="n">
+      <c r="DH2" t="n">
         <v>1104228.3316495</v>
       </c>
-      <c r="CQ2" t="n">
+      <c r="DI2" t="n">
         <v>1104228.3316495</v>
       </c>
-      <c r="CR2" t="n">
+      <c r="DJ2" t="n">
         <v>1104228.3316495</v>
       </c>
-      <c r="CS2" t="n">
+      <c r="DK2" t="n">
         <v>1104228.3316495</v>
       </c>
-      <c r="CT2" t="n">
+      <c r="DL2" t="n">
+        <v>1104228.3316495</v>
+      </c>
+      <c r="DM2" t="n">
+        <v>1104228.3316495</v>
+      </c>
+      <c r="DN2" t="n">
         <v>1163290.2191602</v>
       </c>
-      <c r="CU2" t="n">
+      <c r="DO2" t="n">
         <v>1163290.2191602</v>
       </c>
-      <c r="CV2" t="n">
+      <c r="DP2" t="n">
         <v>1163290.2191602</v>
       </c>
-      <c r="CW2" t="n">
+      <c r="DQ2" t="n">
         <v>1163290.2191602</v>
       </c>
-      <c r="CX2" t="n">
+      <c r="DR2" t="n">
         <v>1163290.2191602</v>
       </c>
-      <c r="CY2" t="n">
+      <c r="DS2" t="n">
         <v>1163290.2191602</v>
       </c>
-      <c r="CZ2" t="n">
+      <c r="DT2" t="n">
+        <v>1163290.2191602</v>
+      </c>
+      <c r="DU2" t="n">
+        <v>1163290.2191602</v>
+      </c>
+      <c r="DV2" t="n">
         <v>1232505.29786395</v>
       </c>
-      <c r="DA2" t="n">
+      <c r="DW2" t="n">
         <v>1232505.29786395</v>
       </c>
-      <c r="DB2" t="n">
+      <c r="DX2" t="n">
         <v>1232505.29786395</v>
       </c>
-      <c r="DC2" t="n">
+      <c r="DY2" t="n">
         <v>1232505.29786395</v>
       </c>
-      <c r="DD2" t="n">
+      <c r="DZ2" t="n">
         <v>1232505.29786395</v>
       </c>
-      <c r="DE2" t="n">
+      <c r="EA2" t="n">
         <v>1232505.29786395</v>
       </c>
-      <c r="DF2" t="n">
+      <c r="EB2" t="n">
+        <v>1232505.29786395</v>
+      </c>
+      <c r="EC2" t="n">
+        <v>1232505.29786395</v>
+      </c>
+      <c r="ED2" t="n">
         <v>1307684.57121994</v>
       </c>
-      <c r="DG2" t="n">
+      <c r="EE2" t="n">
         <v>1307684.57121994</v>
       </c>
-      <c r="DH2" t="n">
+      <c r="EF2" t="n">
         <v>1307684.57121994</v>
       </c>
-      <c r="DI2" t="n">
+      <c r="EG2" t="n">
         <v>1307684.57121994</v>
       </c>
-      <c r="DJ2" t="n">
+      <c r="EH2" t="n">
         <v>1307684.57121994</v>
       </c>
-      <c r="DK2" t="n">
+      <c r="EI2" t="n">
         <v>1307684.57121994</v>
       </c>
-      <c r="DL2" t="n">
+      <c r="EJ2" t="n">
+        <v>1307684.57121994</v>
+      </c>
+      <c r="EK2" t="n">
+        <v>1307684.57121994</v>
+      </c>
+      <c r="EL2" t="n">
         <v>1311175.61502285</v>
       </c>
-      <c r="DM2" t="n">
+      <c r="EM2" t="n">
         <v>1311175.61502285</v>
       </c>
-      <c r="DN2" t="n">
+      <c r="EN2" t="n">
         <v>1311175.61502285</v>
       </c>
-      <c r="DO2" t="n">
+      <c r="EO2" t="n">
         <v>1311175.61502285</v>
       </c>
-      <c r="DP2" t="n">
+      <c r="EP2" t="n">
         <v>1311175.61502285</v>
       </c>
-      <c r="DQ2" t="n">
+      <c r="EQ2" t="n">
         <v>1311175.61502285</v>
       </c>
-      <c r="DR2" t="inlineStr"/>
+      <c r="ER2" t="n">
+        <v>1311175.61502285</v>
+      </c>
+      <c r="ES2" t="n">
+        <v>1311175.61502285</v>
+      </c>
+      <c r="ET2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/INTLINE/data/534/MOSPI/KAPSARC/TAE_historical.xlsx
+++ b/INTLINE/data/534/MOSPI/KAPSARC/TAE_historical.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:ET2"/>
+  <dimension ref="A1:FH2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -589,530 +589,600 @@
       </c>
       <c r="AS1" s="1" t="inlineStr">
         <is>
+          <t>2006</t>
+        </is>
+      </c>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
           <t>2006-01-01</t>
         </is>
       </c>
-      <c r="AT1" s="1" t="inlineStr">
+      <c r="AU1" s="1" t="inlineStr">
         <is>
           <t>2007</t>
         </is>
       </c>
-      <c r="AU1" s="1" t="inlineStr">
+      <c r="AV1" s="1" t="inlineStr">
         <is>
           <t>2007</t>
         </is>
       </c>
-      <c r="AV1" s="1" t="inlineStr">
+      <c r="AW1" s="1" t="inlineStr">
         <is>
           <t>2007</t>
         </is>
       </c>
-      <c r="AW1" s="1" t="inlineStr">
+      <c r="AX1" s="1" t="inlineStr">
         <is>
           <t>2007</t>
         </is>
       </c>
-      <c r="AX1" s="1" t="inlineStr">
+      <c r="AY1" s="1" t="inlineStr">
         <is>
           <t>2007</t>
         </is>
       </c>
-      <c r="AY1" s="1" t="inlineStr">
+      <c r="AZ1" s="1" t="inlineStr">
         <is>
           <t>2007</t>
         </is>
       </c>
-      <c r="AZ1" s="1" t="inlineStr">
+      <c r="BA1" s="1" t="inlineStr">
         <is>
           <t>2007</t>
         </is>
       </c>
-      <c r="BA1" s="1" t="inlineStr">
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="BC1" s="1" t="inlineStr">
         <is>
           <t>2007-01-01</t>
         </is>
       </c>
-      <c r="BB1" s="1" t="inlineStr">
+      <c r="BD1" s="1" t="inlineStr">
         <is>
           <t>2008</t>
         </is>
       </c>
-      <c r="BC1" s="1" t="inlineStr">
+      <c r="BE1" s="1" t="inlineStr">
         <is>
           <t>2008</t>
         </is>
       </c>
-      <c r="BD1" s="1" t="inlineStr">
+      <c r="BF1" s="1" t="inlineStr">
         <is>
           <t>2008</t>
         </is>
       </c>
-      <c r="BE1" s="1" t="inlineStr">
+      <c r="BG1" s="1" t="inlineStr">
         <is>
           <t>2008</t>
         </is>
       </c>
-      <c r="BF1" s="1" t="inlineStr">
+      <c r="BH1" s="1" t="inlineStr">
         <is>
           <t>2008</t>
         </is>
       </c>
-      <c r="BG1" s="1" t="inlineStr">
+      <c r="BI1" s="1" t="inlineStr">
         <is>
           <t>2008</t>
         </is>
       </c>
-      <c r="BH1" s="1" t="inlineStr">
+      <c r="BJ1" s="1" t="inlineStr">
         <is>
           <t>2008</t>
         </is>
       </c>
-      <c r="BI1" s="1" t="inlineStr">
+      <c r="BK1" s="1" t="inlineStr">
+        <is>
+          <t>2008</t>
+        </is>
+      </c>
+      <c r="BL1" s="1" t="inlineStr">
         <is>
           <t>2008-01-01</t>
         </is>
       </c>
-      <c r="BJ1" s="1" t="inlineStr">
+      <c r="BM1" s="1" t="inlineStr">
         <is>
           <t>2009</t>
         </is>
       </c>
-      <c r="BK1" s="1" t="inlineStr">
+      <c r="BN1" s="1" t="inlineStr">
         <is>
           <t>2009</t>
         </is>
       </c>
-      <c r="BL1" s="1" t="inlineStr">
+      <c r="BO1" s="1" t="inlineStr">
         <is>
           <t>2009</t>
         </is>
       </c>
-      <c r="BM1" s="1" t="inlineStr">
+      <c r="BP1" s="1" t="inlineStr">
         <is>
           <t>2009</t>
         </is>
       </c>
-      <c r="BN1" s="1" t="inlineStr">
+      <c r="BQ1" s="1" t="inlineStr">
         <is>
           <t>2009</t>
         </is>
       </c>
-      <c r="BO1" s="1" t="inlineStr">
+      <c r="BR1" s="1" t="inlineStr">
         <is>
           <t>2009</t>
         </is>
       </c>
-      <c r="BP1" s="1" t="inlineStr">
+      <c r="BS1" s="1" t="inlineStr">
         <is>
           <t>2009</t>
         </is>
       </c>
-      <c r="BQ1" s="1" t="inlineStr">
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>2009</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
         <is>
           <t>2009-01-01</t>
         </is>
       </c>
-      <c r="BR1" s="1" t="inlineStr">
+      <c r="BV1" s="1" t="inlineStr">
         <is>
           <t>2010</t>
         </is>
       </c>
-      <c r="BS1" s="1" t="inlineStr">
+      <c r="BW1" s="1" t="inlineStr">
         <is>
           <t>2010</t>
         </is>
       </c>
-      <c r="BT1" s="1" t="inlineStr">
+      <c r="BX1" s="1" t="inlineStr">
         <is>
           <t>2010</t>
         </is>
       </c>
-      <c r="BU1" s="1" t="inlineStr">
+      <c r="BY1" s="1" t="inlineStr">
         <is>
           <t>2010</t>
         </is>
       </c>
-      <c r="BV1" s="1" t="inlineStr">
+      <c r="BZ1" s="1" t="inlineStr">
         <is>
           <t>2010</t>
         </is>
       </c>
-      <c r="BW1" s="1" t="inlineStr">
+      <c r="CA1" s="1" t="inlineStr">
         <is>
           <t>2010</t>
         </is>
       </c>
-      <c r="BX1" s="1" t="inlineStr">
+      <c r="CB1" s="1" t="inlineStr">
         <is>
           <t>2010</t>
         </is>
       </c>
-      <c r="BY1" s="1" t="inlineStr">
+      <c r="CC1" s="1" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
+      </c>
+      <c r="CD1" s="1" t="inlineStr">
         <is>
           <t>2010-01-01</t>
         </is>
       </c>
-      <c r="BZ1" s="1" t="inlineStr">
+      <c r="CE1" s="1" t="inlineStr">
         <is>
           <t>2011</t>
         </is>
       </c>
-      <c r="CA1" s="1" t="inlineStr">
+      <c r="CF1" s="1" t="inlineStr">
         <is>
           <t>2011</t>
         </is>
       </c>
-      <c r="CB1" s="1" t="inlineStr">
+      <c r="CG1" s="1" t="inlineStr">
         <is>
           <t>2011</t>
         </is>
       </c>
-      <c r="CC1" s="1" t="inlineStr">
+      <c r="CH1" s="1" t="inlineStr">
         <is>
           <t>2011</t>
         </is>
       </c>
-      <c r="CD1" s="1" t="inlineStr">
+      <c r="CI1" s="1" t="inlineStr">
         <is>
           <t>2011</t>
         </is>
       </c>
-      <c r="CE1" s="1" t="inlineStr">
+      <c r="CJ1" s="1" t="inlineStr">
         <is>
           <t>2011</t>
         </is>
       </c>
-      <c r="CF1" s="1" t="inlineStr">
+      <c r="CK1" s="1" t="inlineStr">
         <is>
           <t>2011</t>
         </is>
       </c>
-      <c r="CG1" s="1" t="inlineStr">
+      <c r="CL1" s="1" t="inlineStr">
+        <is>
+          <t>2011</t>
+        </is>
+      </c>
+      <c r="CM1" s="1" t="inlineStr">
         <is>
           <t>2011-01-01</t>
         </is>
       </c>
-      <c r="CH1" s="1" t="inlineStr">
+      <c r="CN1" s="1" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="CI1" s="1" t="inlineStr">
+      <c r="CO1" s="1" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="CJ1" s="1" t="inlineStr">
+      <c r="CP1" s="1" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="CK1" s="1" t="inlineStr">
+      <c r="CQ1" s="1" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="CL1" s="1" t="inlineStr">
+      <c r="CR1" s="1" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="CM1" s="1" t="inlineStr">
+      <c r="CS1" s="1" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="CN1" s="1" t="inlineStr">
+      <c r="CT1" s="1" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="CO1" s="1" t="inlineStr">
+      <c r="CU1" s="1" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="CV1" s="1" t="inlineStr">
         <is>
           <t>2012-01-01</t>
         </is>
       </c>
-      <c r="CP1" s="1" t="inlineStr">
+      <c r="CW1" s="1" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="CQ1" s="1" t="inlineStr">
+      <c r="CX1" s="1" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="CR1" s="1" t="inlineStr">
+      <c r="CY1" s="1" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="CS1" s="1" t="inlineStr">
+      <c r="CZ1" s="1" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="CT1" s="1" t="inlineStr">
+      <c r="DA1" s="1" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="CU1" s="1" t="inlineStr">
+      <c r="DB1" s="1" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="CV1" s="1" t="inlineStr">
+      <c r="DC1" s="1" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="CW1" s="1" t="inlineStr">
+      <c r="DD1" s="1" t="inlineStr">
+        <is>
+          <t>2013</t>
+        </is>
+      </c>
+      <c r="DE1" s="1" t="inlineStr">
         <is>
           <t>2013-01-01</t>
         </is>
       </c>
-      <c r="CX1" s="1" t="inlineStr">
+      <c r="DF1" s="1" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="CY1" s="1" t="inlineStr">
+      <c r="DG1" s="1" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="CZ1" s="1" t="inlineStr">
+      <c r="DH1" s="1" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="DA1" s="1" t="inlineStr">
+      <c r="DI1" s="1" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="DB1" s="1" t="inlineStr">
+      <c r="DJ1" s="1" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="DC1" s="1" t="inlineStr">
+      <c r="DK1" s="1" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="DD1" s="1" t="inlineStr">
+      <c r="DL1" s="1" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="DE1" s="1" t="inlineStr">
+      <c r="DM1" s="1" t="inlineStr">
+        <is>
+          <t>2014</t>
+        </is>
+      </c>
+      <c r="DN1" s="1" t="inlineStr">
         <is>
           <t>2014-01-01</t>
         </is>
       </c>
-      <c r="DF1" s="1" t="inlineStr">
+      <c r="DO1" s="1" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="DG1" s="1" t="inlineStr">
+      <c r="DP1" s="1" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="DH1" s="1" t="inlineStr">
+      <c r="DQ1" s="1" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="DI1" s="1" t="inlineStr">
+      <c r="DR1" s="1" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="DJ1" s="1" t="inlineStr">
+      <c r="DS1" s="1" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="DK1" s="1" t="inlineStr">
+      <c r="DT1" s="1" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="DL1" s="1" t="inlineStr">
+      <c r="DU1" s="1" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="DM1" s="1" t="inlineStr">
+      <c r="DV1" s="1" t="inlineStr">
+        <is>
+          <t>2015</t>
+        </is>
+      </c>
+      <c r="DW1" s="1" t="inlineStr">
         <is>
           <t>2015-01-01</t>
         </is>
       </c>
-      <c r="DN1" s="1" t="inlineStr">
+      <c r="DX1" s="1" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="DO1" s="1" t="inlineStr">
+      <c r="DY1" s="1" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="DP1" s="1" t="inlineStr">
+      <c r="DZ1" s="1" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="DQ1" s="1" t="inlineStr">
+      <c r="EA1" s="1" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="DR1" s="1" t="inlineStr">
+      <c r="EB1" s="1" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="DS1" s="1" t="inlineStr">
+      <c r="EC1" s="1" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="DT1" s="1" t="inlineStr">
+      <c r="ED1" s="1" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="DU1" s="1" t="inlineStr">
+      <c r="EE1" s="1" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="EF1" s="1" t="inlineStr">
         <is>
           <t>2016-01-01</t>
         </is>
       </c>
-      <c r="DV1" s="1" t="inlineStr">
+      <c r="EG1" s="1" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="DW1" s="1" t="inlineStr">
+      <c r="EH1" s="1" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="DX1" s="1" t="inlineStr">
+      <c r="EI1" s="1" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="DY1" s="1" t="inlineStr">
+      <c r="EJ1" s="1" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="DZ1" s="1" t="inlineStr">
+      <c r="EK1" s="1" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="EA1" s="1" t="inlineStr">
+      <c r="EL1" s="1" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="EB1" s="1" t="inlineStr">
+      <c r="EM1" s="1" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="EC1" s="1" t="inlineStr">
+      <c r="EN1" s="1" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="EO1" s="1" t="inlineStr">
         <is>
           <t>2017-01-01</t>
         </is>
       </c>
-      <c r="ED1" s="1" t="inlineStr">
+      <c r="EP1" s="1" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="EE1" s="1" t="inlineStr">
+      <c r="EQ1" s="1" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="EF1" s="1" t="inlineStr">
+      <c r="ER1" s="1" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="EG1" s="1" t="inlineStr">
+      <c r="ES1" s="1" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="EH1" s="1" t="inlineStr">
+      <c r="ET1" s="1" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="EI1" s="1" t="inlineStr">
+      <c r="EU1" s="1" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="EJ1" s="1" t="inlineStr">
+      <c r="EV1" s="1" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="EK1" s="1" t="inlineStr">
+      <c r="EW1" s="1" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="EX1" s="1" t="inlineStr">
         <is>
           <t>2018-01-01</t>
         </is>
       </c>
-      <c r="EL1" s="1" t="inlineStr">
+      <c r="EY1" s="1" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="EM1" s="1" t="inlineStr">
+      <c r="EZ1" s="1" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="EN1" s="1" t="inlineStr">
+      <c r="FA1" s="1" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="EO1" s="1" t="inlineStr">
+      <c r="FB1" s="1" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="EP1" s="1" t="inlineStr">
+      <c r="FC1" s="1" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="EQ1" s="1" t="inlineStr">
+      <c r="FD1" s="1" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="ER1" s="1" t="inlineStr">
+      <c r="FE1" s="1" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="ES1" s="1" t="inlineStr">
+      <c r="FF1" s="1" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+      <c r="FG1" s="1" t="inlineStr">
         <is>
           <t>2019-01-01</t>
         </is>
       </c>
-      <c r="ET1" s="1" t="inlineStr">
+      <c r="FH1" s="1" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
@@ -1257,7 +1327,7 @@
         <v>639008</v>
       </c>
       <c r="AT2" t="n">
-        <v>689780</v>
+        <v>639008</v>
       </c>
       <c r="AU2" t="n">
         <v>689780</v>
@@ -1281,10 +1351,10 @@
         <v>689780</v>
       </c>
       <c r="BB2" t="n">
-        <v>707945</v>
+        <v>689780</v>
       </c>
       <c r="BC2" t="n">
-        <v>707945</v>
+        <v>689780</v>
       </c>
       <c r="BD2" t="n">
         <v>707945</v>
@@ -1305,13 +1375,13 @@
         <v>707945</v>
       </c>
       <c r="BJ2" t="n">
-        <v>763519</v>
+        <v>707945</v>
       </c>
       <c r="BK2" t="n">
-        <v>763519</v>
+        <v>707945</v>
       </c>
       <c r="BL2" t="n">
-        <v>763519</v>
+        <v>707945</v>
       </c>
       <c r="BM2" t="n">
         <v>763519</v>
@@ -1329,16 +1399,16 @@
         <v>763519</v>
       </c>
       <c r="BR2" t="n">
-        <v>811635</v>
+        <v>763519</v>
       </c>
       <c r="BS2" t="n">
-        <v>811635</v>
+        <v>763519</v>
       </c>
       <c r="BT2" t="n">
-        <v>811635</v>
+        <v>763519</v>
       </c>
       <c r="BU2" t="n">
-        <v>811635</v>
+        <v>763519</v>
       </c>
       <c r="BV2" t="n">
         <v>811635</v>
@@ -1353,19 +1423,19 @@
         <v>811635</v>
       </c>
       <c r="BZ2" t="n">
-        <v>881466</v>
+        <v>811635</v>
       </c>
       <c r="CA2" t="n">
-        <v>881466</v>
+        <v>811635</v>
       </c>
       <c r="CB2" t="n">
-        <v>881466</v>
+        <v>811635</v>
       </c>
       <c r="CC2" t="n">
-        <v>881466</v>
+        <v>811635</v>
       </c>
       <c r="CD2" t="n">
-        <v>881466</v>
+        <v>811635</v>
       </c>
       <c r="CE2" t="n">
         <v>881466</v>
@@ -1377,22 +1447,22 @@
         <v>881466</v>
       </c>
       <c r="CH2" t="n">
-        <v>921229</v>
+        <v>881466</v>
       </c>
       <c r="CI2" t="n">
-        <v>921229</v>
+        <v>881466</v>
       </c>
       <c r="CJ2" t="n">
-        <v>921229</v>
+        <v>881466</v>
       </c>
       <c r="CK2" t="n">
-        <v>921229</v>
+        <v>881466</v>
       </c>
       <c r="CL2" t="n">
-        <v>921229</v>
+        <v>881466</v>
       </c>
       <c r="CM2" t="n">
-        <v>921229</v>
+        <v>881466</v>
       </c>
       <c r="CN2" t="n">
         <v>921229</v>
@@ -1401,174 +1471,216 @@
         <v>921229</v>
       </c>
       <c r="CP2" t="n">
-        <v>974436</v>
+        <v>921229</v>
       </c>
       <c r="CQ2" t="n">
-        <v>974436</v>
+        <v>921229</v>
       </c>
       <c r="CR2" t="n">
-        <v>974436</v>
+        <v>921229</v>
       </c>
       <c r="CS2" t="n">
-        <v>974436</v>
+        <v>921229</v>
       </c>
       <c r="CT2" t="n">
-        <v>974436</v>
+        <v>921229</v>
       </c>
       <c r="CU2" t="n">
-        <v>974436</v>
+        <v>921229</v>
       </c>
       <c r="CV2" t="n">
-        <v>974436</v>
+        <v>921229</v>
       </c>
       <c r="CW2" t="n">
         <v>974436</v>
       </c>
       <c r="CX2" t="n">
+        <v>974436</v>
+      </c>
+      <c r="CY2" t="n">
+        <v>974436</v>
+      </c>
+      <c r="CZ2" t="n">
+        <v>974436</v>
+      </c>
+      <c r="DA2" t="n">
+        <v>974436</v>
+      </c>
+      <c r="DB2" t="n">
+        <v>974436</v>
+      </c>
+      <c r="DC2" t="n">
+        <v>974436</v>
+      </c>
+      <c r="DD2" t="n">
+        <v>974436</v>
+      </c>
+      <c r="DE2" t="n">
+        <v>974436</v>
+      </c>
+      <c r="DF2" t="n">
         <v>1054354.92</v>
       </c>
-      <c r="CY2" t="n">
+      <c r="DG2" t="n">
         <v>1054354.92</v>
       </c>
-      <c r="CZ2" t="n">
+      <c r="DH2" t="n">
         <v>1054354.92</v>
       </c>
-      <c r="DA2" t="n">
+      <c r="DI2" t="n">
         <v>1054354.92</v>
       </c>
-      <c r="DB2" t="n">
+      <c r="DJ2" t="n">
         <v>1054354.92</v>
       </c>
-      <c r="DC2" t="n">
+      <c r="DK2" t="n">
         <v>1054354.92</v>
       </c>
-      <c r="DD2" t="n">
+      <c r="DL2" t="n">
         <v>1054354.92</v>
       </c>
-      <c r="DE2" t="n">
+      <c r="DM2" t="n">
         <v>1054354.92</v>
       </c>
-      <c r="DF2" t="n">
+      <c r="DN2" t="n">
+        <v>1054354.92</v>
+      </c>
+      <c r="DO2" t="n">
         <v>1104228.3316495</v>
       </c>
-      <c r="DG2" t="n">
+      <c r="DP2" t="n">
         <v>1104228.3316495</v>
       </c>
-      <c r="DH2" t="n">
+      <c r="DQ2" t="n">
         <v>1104228.3316495</v>
       </c>
-      <c r="DI2" t="n">
+      <c r="DR2" t="n">
         <v>1104228.3316495</v>
       </c>
-      <c r="DJ2" t="n">
+      <c r="DS2" t="n">
         <v>1104228.3316495</v>
       </c>
-      <c r="DK2" t="n">
+      <c r="DT2" t="n">
         <v>1104228.3316495</v>
       </c>
-      <c r="DL2" t="n">
+      <c r="DU2" t="n">
         <v>1104228.3316495</v>
       </c>
-      <c r="DM2" t="n">
+      <c r="DV2" t="n">
         <v>1104228.3316495</v>
       </c>
-      <c r="DN2" t="n">
+      <c r="DW2" t="n">
+        <v>1104228.3316495</v>
+      </c>
+      <c r="DX2" t="n">
         <v>1163290.2191602</v>
       </c>
-      <c r="DO2" t="n">
+      <c r="DY2" t="n">
         <v>1163290.2191602</v>
       </c>
-      <c r="DP2" t="n">
+      <c r="DZ2" t="n">
         <v>1163290.2191602</v>
       </c>
-      <c r="DQ2" t="n">
+      <c r="EA2" t="n">
         <v>1163290.2191602</v>
       </c>
-      <c r="DR2" t="n">
+      <c r="EB2" t="n">
         <v>1163290.2191602</v>
       </c>
-      <c r="DS2" t="n">
+      <c r="EC2" t="n">
         <v>1163290.2191602</v>
       </c>
-      <c r="DT2" t="n">
+      <c r="ED2" t="n">
         <v>1163290.2191602</v>
       </c>
-      <c r="DU2" t="n">
+      <c r="EE2" t="n">
         <v>1163290.2191602</v>
       </c>
-      <c r="DV2" t="n">
+      <c r="EF2" t="n">
+        <v>1163290.2191602</v>
+      </c>
+      <c r="EG2" t="n">
         <v>1232505.29786395</v>
       </c>
-      <c r="DW2" t="n">
+      <c r="EH2" t="n">
         <v>1232505.29786395</v>
       </c>
-      <c r="DX2" t="n">
+      <c r="EI2" t="n">
         <v>1232505.29786395</v>
       </c>
-      <c r="DY2" t="n">
+      <c r="EJ2" t="n">
         <v>1232505.29786395</v>
       </c>
-      <c r="DZ2" t="n">
+      <c r="EK2" t="n">
         <v>1232505.29786395</v>
       </c>
-      <c r="EA2" t="n">
+      <c r="EL2" t="n">
         <v>1232505.29786395</v>
       </c>
-      <c r="EB2" t="n">
+      <c r="EM2" t="n">
         <v>1232505.29786395</v>
       </c>
-      <c r="EC2" t="n">
+      <c r="EN2" t="n">
         <v>1232505.29786395</v>
       </c>
-      <c r="ED2" t="n">
+      <c r="EO2" t="n">
+        <v>1232505.29786395</v>
+      </c>
+      <c r="EP2" t="n">
         <v>1307684.57121994</v>
       </c>
-      <c r="EE2" t="n">
+      <c r="EQ2" t="n">
         <v>1307684.57121994</v>
       </c>
-      <c r="EF2" t="n">
+      <c r="ER2" t="n">
         <v>1307684.57121994</v>
       </c>
-      <c r="EG2" t="n">
+      <c r="ES2" t="n">
         <v>1307684.57121994</v>
       </c>
-      <c r="EH2" t="n">
+      <c r="ET2" t="n">
         <v>1307684.57121994</v>
       </c>
-      <c r="EI2" t="n">
+      <c r="EU2" t="n">
         <v>1307684.57121994</v>
       </c>
-      <c r="EJ2" t="n">
+      <c r="EV2" t="n">
         <v>1307684.57121994</v>
       </c>
-      <c r="EK2" t="n">
+      <c r="EW2" t="n">
         <v>1307684.57121994</v>
       </c>
-      <c r="EL2" t="n">
+      <c r="EX2" t="n">
+        <v>1307684.57121994</v>
+      </c>
+      <c r="EY2" t="n">
         <v>1311175.61502285</v>
       </c>
-      <c r="EM2" t="n">
+      <c r="EZ2" t="n">
         <v>1311175.61502285</v>
       </c>
-      <c r="EN2" t="n">
+      <c r="FA2" t="n">
         <v>1311175.61502285</v>
       </c>
-      <c r="EO2" t="n">
+      <c r="FB2" t="n">
         <v>1311175.61502285</v>
       </c>
-      <c r="EP2" t="n">
+      <c r="FC2" t="n">
         <v>1311175.61502285</v>
       </c>
-      <c r="EQ2" t="n">
+      <c r="FD2" t="n">
         <v>1311175.61502285</v>
       </c>
-      <c r="ER2" t="n">
+      <c r="FE2" t="n">
         <v>1311175.61502285</v>
       </c>
-      <c r="ES2" t="n">
+      <c r="FF2" t="n">
         <v>1311175.61502285</v>
       </c>
-      <c r="ET2" t="inlineStr"/>
+      <c r="FG2" t="n">
+        <v>1311175.61502285</v>
+      </c>
+      <c r="FH2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/INTLINE/data/534/MOSPI/KAPSARC/TAE_historical.xlsx
+++ b/INTLINE/data/534/MOSPI/KAPSARC/TAE_historical.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:FH2"/>
+  <dimension ref="A1:HZ2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -594,595 +594,945 @@
       </c>
       <c r="AT1" s="1" t="inlineStr">
         <is>
+          <t>2006</t>
+        </is>
+      </c>
+      <c r="AU1" s="1" t="inlineStr">
+        <is>
+          <t>2006</t>
+        </is>
+      </c>
+      <c r="AV1" s="1" t="inlineStr">
+        <is>
+          <t>2006</t>
+        </is>
+      </c>
+      <c r="AW1" s="1" t="inlineStr">
+        <is>
+          <t>2006</t>
+        </is>
+      </c>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
+          <t>2006</t>
+        </is>
+      </c>
+      <c r="AY1" s="1" t="inlineStr">
+        <is>
           <t>2006-01-01</t>
         </is>
       </c>
-      <c r="AU1" s="1" t="inlineStr">
+      <c r="AZ1" s="1" t="inlineStr">
         <is>
           <t>2007</t>
         </is>
       </c>
-      <c r="AV1" s="1" t="inlineStr">
+      <c r="BA1" s="1" t="inlineStr">
         <is>
           <t>2007</t>
         </is>
       </c>
-      <c r="AW1" s="1" t="inlineStr">
+      <c r="BB1" s="1" t="inlineStr">
         <is>
           <t>2007</t>
         </is>
       </c>
-      <c r="AX1" s="1" t="inlineStr">
+      <c r="BC1" s="1" t="inlineStr">
         <is>
           <t>2007</t>
         </is>
       </c>
-      <c r="AY1" s="1" t="inlineStr">
+      <c r="BD1" s="1" t="inlineStr">
         <is>
           <t>2007</t>
         </is>
       </c>
-      <c r="AZ1" s="1" t="inlineStr">
+      <c r="BE1" s="1" t="inlineStr">
         <is>
           <t>2007</t>
         </is>
       </c>
-      <c r="BA1" s="1" t="inlineStr">
+      <c r="BF1" s="1" t="inlineStr">
         <is>
           <t>2007</t>
         </is>
       </c>
-      <c r="BB1" s="1" t="inlineStr">
+      <c r="BG1" s="1" t="inlineStr">
         <is>
           <t>2007</t>
         </is>
       </c>
-      <c r="BC1" s="1" t="inlineStr">
+      <c r="BH1" s="1" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="BI1" s="1" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="BJ1" s="1" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="BK1" s="1" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="BL1" s="1" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="BM1" s="1" t="inlineStr">
         <is>
           <t>2007-01-01</t>
         </is>
       </c>
-      <c r="BD1" s="1" t="inlineStr">
+      <c r="BN1" s="1" t="inlineStr">
         <is>
           <t>2008</t>
         </is>
       </c>
-      <c r="BE1" s="1" t="inlineStr">
+      <c r="BO1" s="1" t="inlineStr">
         <is>
           <t>2008</t>
         </is>
       </c>
-      <c r="BF1" s="1" t="inlineStr">
+      <c r="BP1" s="1" t="inlineStr">
         <is>
           <t>2008</t>
         </is>
       </c>
-      <c r="BG1" s="1" t="inlineStr">
+      <c r="BQ1" s="1" t="inlineStr">
         <is>
           <t>2008</t>
         </is>
       </c>
-      <c r="BH1" s="1" t="inlineStr">
+      <c r="BR1" s="1" t="inlineStr">
         <is>
           <t>2008</t>
         </is>
       </c>
-      <c r="BI1" s="1" t="inlineStr">
+      <c r="BS1" s="1" t="inlineStr">
         <is>
           <t>2008</t>
         </is>
       </c>
-      <c r="BJ1" s="1" t="inlineStr">
+      <c r="BT1" s="1" t="inlineStr">
         <is>
           <t>2008</t>
         </is>
       </c>
-      <c r="BK1" s="1" t="inlineStr">
+      <c r="BU1" s="1" t="inlineStr">
         <is>
           <t>2008</t>
         </is>
       </c>
-      <c r="BL1" s="1" t="inlineStr">
+      <c r="BV1" s="1" t="inlineStr">
+        <is>
+          <t>2008</t>
+        </is>
+      </c>
+      <c r="BW1" s="1" t="inlineStr">
+        <is>
+          <t>2008</t>
+        </is>
+      </c>
+      <c r="BX1" s="1" t="inlineStr">
+        <is>
+          <t>2008</t>
+        </is>
+      </c>
+      <c r="BY1" s="1" t="inlineStr">
+        <is>
+          <t>2008</t>
+        </is>
+      </c>
+      <c r="BZ1" s="1" t="inlineStr">
+        <is>
+          <t>2008</t>
+        </is>
+      </c>
+      <c r="CA1" s="1" t="inlineStr">
         <is>
           <t>2008-01-01</t>
         </is>
       </c>
-      <c r="BM1" s="1" t="inlineStr">
+      <c r="CB1" s="1" t="inlineStr">
         <is>
           <t>2009</t>
         </is>
       </c>
-      <c r="BN1" s="1" t="inlineStr">
+      <c r="CC1" s="1" t="inlineStr">
         <is>
           <t>2009</t>
         </is>
       </c>
-      <c r="BO1" s="1" t="inlineStr">
+      <c r="CD1" s="1" t="inlineStr">
         <is>
           <t>2009</t>
         </is>
       </c>
-      <c r="BP1" s="1" t="inlineStr">
+      <c r="CE1" s="1" t="inlineStr">
         <is>
           <t>2009</t>
         </is>
       </c>
-      <c r="BQ1" s="1" t="inlineStr">
+      <c r="CF1" s="1" t="inlineStr">
         <is>
           <t>2009</t>
         </is>
       </c>
-      <c r="BR1" s="1" t="inlineStr">
+      <c r="CG1" s="1" t="inlineStr">
         <is>
           <t>2009</t>
         </is>
       </c>
-      <c r="BS1" s="1" t="inlineStr">
+      <c r="CH1" s="1" t="inlineStr">
         <is>
           <t>2009</t>
         </is>
       </c>
-      <c r="BT1" s="1" t="inlineStr">
+      <c r="CI1" s="1" t="inlineStr">
         <is>
           <t>2009</t>
         </is>
       </c>
-      <c r="BU1" s="1" t="inlineStr">
+      <c r="CJ1" s="1" t="inlineStr">
+        <is>
+          <t>2009</t>
+        </is>
+      </c>
+      <c r="CK1" s="1" t="inlineStr">
+        <is>
+          <t>2009</t>
+        </is>
+      </c>
+      <c r="CL1" s="1" t="inlineStr">
+        <is>
+          <t>2009</t>
+        </is>
+      </c>
+      <c r="CM1" s="1" t="inlineStr">
+        <is>
+          <t>2009</t>
+        </is>
+      </c>
+      <c r="CN1" s="1" t="inlineStr">
+        <is>
+          <t>2009</t>
+        </is>
+      </c>
+      <c r="CO1" s="1" t="inlineStr">
         <is>
           <t>2009-01-01</t>
         </is>
       </c>
-      <c r="BV1" s="1" t="inlineStr">
+      <c r="CP1" s="1" t="inlineStr">
         <is>
           <t>2010</t>
         </is>
       </c>
-      <c r="BW1" s="1" t="inlineStr">
+      <c r="CQ1" s="1" t="inlineStr">
         <is>
           <t>2010</t>
         </is>
       </c>
-      <c r="BX1" s="1" t="inlineStr">
+      <c r="CR1" s="1" t="inlineStr">
         <is>
           <t>2010</t>
         </is>
       </c>
-      <c r="BY1" s="1" t="inlineStr">
+      <c r="CS1" s="1" t="inlineStr">
         <is>
           <t>2010</t>
         </is>
       </c>
-      <c r="BZ1" s="1" t="inlineStr">
+      <c r="CT1" s="1" t="inlineStr">
         <is>
           <t>2010</t>
         </is>
       </c>
-      <c r="CA1" s="1" t="inlineStr">
+      <c r="CU1" s="1" t="inlineStr">
         <is>
           <t>2010</t>
         </is>
       </c>
-      <c r="CB1" s="1" t="inlineStr">
+      <c r="CV1" s="1" t="inlineStr">
         <is>
           <t>2010</t>
         </is>
       </c>
-      <c r="CC1" s="1" t="inlineStr">
+      <c r="CW1" s="1" t="inlineStr">
         <is>
           <t>2010</t>
         </is>
       </c>
-      <c r="CD1" s="1" t="inlineStr">
+      <c r="CX1" s="1" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
+      </c>
+      <c r="CY1" s="1" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
+      </c>
+      <c r="CZ1" s="1" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
+      </c>
+      <c r="DA1" s="1" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
+      </c>
+      <c r="DB1" s="1" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
+      </c>
+      <c r="DC1" s="1" t="inlineStr">
         <is>
           <t>2010-01-01</t>
         </is>
       </c>
-      <c r="CE1" s="1" t="inlineStr">
+      <c r="DD1" s="1" t="inlineStr">
         <is>
           <t>2011</t>
         </is>
       </c>
-      <c r="CF1" s="1" t="inlineStr">
+      <c r="DE1" s="1" t="inlineStr">
         <is>
           <t>2011</t>
         </is>
       </c>
-      <c r="CG1" s="1" t="inlineStr">
+      <c r="DF1" s="1" t="inlineStr">
         <is>
           <t>2011</t>
         </is>
       </c>
-      <c r="CH1" s="1" t="inlineStr">
+      <c r="DG1" s="1" t="inlineStr">
         <is>
           <t>2011</t>
         </is>
       </c>
-      <c r="CI1" s="1" t="inlineStr">
+      <c r="DH1" s="1" t="inlineStr">
         <is>
           <t>2011</t>
         </is>
       </c>
-      <c r="CJ1" s="1" t="inlineStr">
+      <c r="DI1" s="1" t="inlineStr">
         <is>
           <t>2011</t>
         </is>
       </c>
-      <c r="CK1" s="1" t="inlineStr">
+      <c r="DJ1" s="1" t="inlineStr">
         <is>
           <t>2011</t>
         </is>
       </c>
-      <c r="CL1" s="1" t="inlineStr">
+      <c r="DK1" s="1" t="inlineStr">
         <is>
           <t>2011</t>
         </is>
       </c>
-      <c r="CM1" s="1" t="inlineStr">
+      <c r="DL1" s="1" t="inlineStr">
+        <is>
+          <t>2011</t>
+        </is>
+      </c>
+      <c r="DM1" s="1" t="inlineStr">
+        <is>
+          <t>2011</t>
+        </is>
+      </c>
+      <c r="DN1" s="1" t="inlineStr">
+        <is>
+          <t>2011</t>
+        </is>
+      </c>
+      <c r="DO1" s="1" t="inlineStr">
+        <is>
+          <t>2011</t>
+        </is>
+      </c>
+      <c r="DP1" s="1" t="inlineStr">
+        <is>
+          <t>2011</t>
+        </is>
+      </c>
+      <c r="DQ1" s="1" t="inlineStr">
         <is>
           <t>2011-01-01</t>
         </is>
       </c>
-      <c r="CN1" s="1" t="inlineStr">
+      <c r="DR1" s="1" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="CO1" s="1" t="inlineStr">
+      <c r="DS1" s="1" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="CP1" s="1" t="inlineStr">
+      <c r="DT1" s="1" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="CQ1" s="1" t="inlineStr">
+      <c r="DU1" s="1" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="CR1" s="1" t="inlineStr">
+      <c r="DV1" s="1" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="CS1" s="1" t="inlineStr">
+      <c r="DW1" s="1" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="CT1" s="1" t="inlineStr">
+      <c r="DX1" s="1" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="CU1" s="1" t="inlineStr">
+      <c r="DY1" s="1" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="CV1" s="1" t="inlineStr">
+      <c r="DZ1" s="1" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="EA1" s="1" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="EB1" s="1" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="EC1" s="1" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="ED1" s="1" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="EE1" s="1" t="inlineStr">
         <is>
           <t>2012-01-01</t>
         </is>
       </c>
-      <c r="CW1" s="1" t="inlineStr">
+      <c r="EF1" s="1" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="CX1" s="1" t="inlineStr">
+      <c r="EG1" s="1" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="CY1" s="1" t="inlineStr">
+      <c r="EH1" s="1" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="CZ1" s="1" t="inlineStr">
+      <c r="EI1" s="1" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="DA1" s="1" t="inlineStr">
+      <c r="EJ1" s="1" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="DB1" s="1" t="inlineStr">
+      <c r="EK1" s="1" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="DC1" s="1" t="inlineStr">
+      <c r="EL1" s="1" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="DD1" s="1" t="inlineStr">
+      <c r="EM1" s="1" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="DE1" s="1" t="inlineStr">
+      <c r="EN1" s="1" t="inlineStr">
+        <is>
+          <t>2013</t>
+        </is>
+      </c>
+      <c r="EO1" s="1" t="inlineStr">
+        <is>
+          <t>2013</t>
+        </is>
+      </c>
+      <c r="EP1" s="1" t="inlineStr">
+        <is>
+          <t>2013</t>
+        </is>
+      </c>
+      <c r="EQ1" s="1" t="inlineStr">
+        <is>
+          <t>2013</t>
+        </is>
+      </c>
+      <c r="ER1" s="1" t="inlineStr">
+        <is>
+          <t>2013</t>
+        </is>
+      </c>
+      <c r="ES1" s="1" t="inlineStr">
         <is>
           <t>2013-01-01</t>
         </is>
       </c>
-      <c r="DF1" s="1" t="inlineStr">
+      <c r="ET1" s="1" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="DG1" s="1" t="inlineStr">
+      <c r="EU1" s="1" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="DH1" s="1" t="inlineStr">
+      <c r="EV1" s="1" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="DI1" s="1" t="inlineStr">
+      <c r="EW1" s="1" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="DJ1" s="1" t="inlineStr">
+      <c r="EX1" s="1" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="DK1" s="1" t="inlineStr">
+      <c r="EY1" s="1" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="DL1" s="1" t="inlineStr">
+      <c r="EZ1" s="1" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="DM1" s="1" t="inlineStr">
+      <c r="FA1" s="1" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="DN1" s="1" t="inlineStr">
+      <c r="FB1" s="1" t="inlineStr">
+        <is>
+          <t>2014</t>
+        </is>
+      </c>
+      <c r="FC1" s="1" t="inlineStr">
+        <is>
+          <t>2014</t>
+        </is>
+      </c>
+      <c r="FD1" s="1" t="inlineStr">
+        <is>
+          <t>2014</t>
+        </is>
+      </c>
+      <c r="FE1" s="1" t="inlineStr">
+        <is>
+          <t>2014</t>
+        </is>
+      </c>
+      <c r="FF1" s="1" t="inlineStr">
+        <is>
+          <t>2014</t>
+        </is>
+      </c>
+      <c r="FG1" s="1" t="inlineStr">
         <is>
           <t>2014-01-01</t>
         </is>
       </c>
-      <c r="DO1" s="1" t="inlineStr">
+      <c r="FH1" s="1" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="DP1" s="1" t="inlineStr">
+      <c r="FI1" s="1" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="DQ1" s="1" t="inlineStr">
+      <c r="FJ1" s="1" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="DR1" s="1" t="inlineStr">
+      <c r="FK1" s="1" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="DS1" s="1" t="inlineStr">
+      <c r="FL1" s="1" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="DT1" s="1" t="inlineStr">
+      <c r="FM1" s="1" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="DU1" s="1" t="inlineStr">
+      <c r="FN1" s="1" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="DV1" s="1" t="inlineStr">
+      <c r="FO1" s="1" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="DW1" s="1" t="inlineStr">
+      <c r="FP1" s="1" t="inlineStr">
+        <is>
+          <t>2015</t>
+        </is>
+      </c>
+      <c r="FQ1" s="1" t="inlineStr">
+        <is>
+          <t>2015</t>
+        </is>
+      </c>
+      <c r="FR1" s="1" t="inlineStr">
+        <is>
+          <t>2015</t>
+        </is>
+      </c>
+      <c r="FS1" s="1" t="inlineStr">
+        <is>
+          <t>2015</t>
+        </is>
+      </c>
+      <c r="FT1" s="1" t="inlineStr">
+        <is>
+          <t>2015</t>
+        </is>
+      </c>
+      <c r="FU1" s="1" t="inlineStr">
         <is>
           <t>2015-01-01</t>
         </is>
       </c>
-      <c r="DX1" s="1" t="inlineStr">
+      <c r="FV1" s="1" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="DY1" s="1" t="inlineStr">
+      <c r="FW1" s="1" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="DZ1" s="1" t="inlineStr">
+      <c r="FX1" s="1" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="EA1" s="1" t="inlineStr">
+      <c r="FY1" s="1" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="EB1" s="1" t="inlineStr">
+      <c r="FZ1" s="1" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="EC1" s="1" t="inlineStr">
+      <c r="GA1" s="1" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="ED1" s="1" t="inlineStr">
+      <c r="GB1" s="1" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="EE1" s="1" t="inlineStr">
+      <c r="GC1" s="1" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="EF1" s="1" t="inlineStr">
+      <c r="GD1" s="1" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="GE1" s="1" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="GF1" s="1" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="GG1" s="1" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="GH1" s="1" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="GI1" s="1" t="inlineStr">
         <is>
           <t>2016-01-01</t>
         </is>
       </c>
-      <c r="EG1" s="1" t="inlineStr">
+      <c r="GJ1" s="1" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="EH1" s="1" t="inlineStr">
+      <c r="GK1" s="1" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="EI1" s="1" t="inlineStr">
+      <c r="GL1" s="1" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="EJ1" s="1" t="inlineStr">
+      <c r="GM1" s="1" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="EK1" s="1" t="inlineStr">
+      <c r="GN1" s="1" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="EL1" s="1" t="inlineStr">
+      <c r="GO1" s="1" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="EM1" s="1" t="inlineStr">
+      <c r="GP1" s="1" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="EN1" s="1" t="inlineStr">
+      <c r="GQ1" s="1" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="EO1" s="1" t="inlineStr">
+      <c r="GR1" s="1" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="GS1" s="1" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="GT1" s="1" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="GU1" s="1" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="GV1" s="1" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="GW1" s="1" t="inlineStr">
         <is>
           <t>2017-01-01</t>
         </is>
       </c>
-      <c r="EP1" s="1" t="inlineStr">
+      <c r="GX1" s="1" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="EQ1" s="1" t="inlineStr">
+      <c r="GY1" s="1" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="ER1" s="1" t="inlineStr">
+      <c r="GZ1" s="1" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="ES1" s="1" t="inlineStr">
+      <c r="HA1" s="1" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="ET1" s="1" t="inlineStr">
+      <c r="HB1" s="1" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="EU1" s="1" t="inlineStr">
+      <c r="HC1" s="1" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="EV1" s="1" t="inlineStr">
+      <c r="HD1" s="1" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="EW1" s="1" t="inlineStr">
+      <c r="HE1" s="1" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="EX1" s="1" t="inlineStr">
+      <c r="HF1" s="1" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="HG1" s="1" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="HH1" s="1" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="HI1" s="1" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="HJ1" s="1" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="HK1" s="1" t="inlineStr">
         <is>
           <t>2018-01-01</t>
         </is>
       </c>
-      <c r="EY1" s="1" t="inlineStr">
+      <c r="HL1" s="1" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="EZ1" s="1" t="inlineStr">
+      <c r="HM1" s="1" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="FA1" s="1" t="inlineStr">
+      <c r="HN1" s="1" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="FB1" s="1" t="inlineStr">
+      <c r="HO1" s="1" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="FC1" s="1" t="inlineStr">
+      <c r="HP1" s="1" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="FD1" s="1" t="inlineStr">
+      <c r="HQ1" s="1" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="FE1" s="1" t="inlineStr">
+      <c r="HR1" s="1" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="FF1" s="1" t="inlineStr">
+      <c r="HS1" s="1" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="FG1" s="1" t="inlineStr">
+      <c r="HT1" s="1" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+      <c r="HU1" s="1" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+      <c r="HV1" s="1" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+      <c r="HW1" s="1" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+      <c r="HX1" s="1" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+      <c r="HY1" s="1" t="inlineStr">
         <is>
           <t>2019-01-01</t>
         </is>
       </c>
-      <c r="FH1" s="1" t="inlineStr">
+      <c r="HZ1" s="1" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
@@ -1330,19 +1680,19 @@
         <v>639008</v>
       </c>
       <c r="AU2" t="n">
-        <v>689780</v>
+        <v>639008</v>
       </c>
       <c r="AV2" t="n">
-        <v>689780</v>
+        <v>639008</v>
       </c>
       <c r="AW2" t="n">
-        <v>689780</v>
+        <v>639008</v>
       </c>
       <c r="AX2" t="n">
-        <v>689780</v>
+        <v>639008</v>
       </c>
       <c r="AY2" t="n">
-        <v>689780</v>
+        <v>639008</v>
       </c>
       <c r="AZ2" t="n">
         <v>689780</v>
@@ -1357,330 +1707,540 @@
         <v>689780</v>
       </c>
       <c r="BD2" t="n">
+        <v>689780</v>
+      </c>
+      <c r="BE2" t="n">
+        <v>689780</v>
+      </c>
+      <c r="BF2" t="n">
+        <v>689780</v>
+      </c>
+      <c r="BG2" t="n">
+        <v>689780</v>
+      </c>
+      <c r="BH2" t="n">
+        <v>689780</v>
+      </c>
+      <c r="BI2" t="n">
+        <v>689780</v>
+      </c>
+      <c r="BJ2" t="n">
+        <v>689780</v>
+      </c>
+      <c r="BK2" t="n">
+        <v>689780</v>
+      </c>
+      <c r="BL2" t="n">
+        <v>689780</v>
+      </c>
+      <c r="BM2" t="n">
+        <v>689780</v>
+      </c>
+      <c r="BN2" t="n">
         <v>707945</v>
       </c>
-      <c r="BE2" t="n">
+      <c r="BO2" t="n">
         <v>707945</v>
       </c>
-      <c r="BF2" t="n">
+      <c r="BP2" t="n">
         <v>707945</v>
       </c>
-      <c r="BG2" t="n">
+      <c r="BQ2" t="n">
         <v>707945</v>
       </c>
-      <c r="BH2" t="n">
+      <c r="BR2" t="n">
         <v>707945</v>
       </c>
-      <c r="BI2" t="n">
+      <c r="BS2" t="n">
         <v>707945</v>
       </c>
-      <c r="BJ2" t="n">
+      <c r="BT2" t="n">
         <v>707945</v>
       </c>
-      <c r="BK2" t="n">
+      <c r="BU2" t="n">
         <v>707945</v>
       </c>
-      <c r="BL2" t="n">
+      <c r="BV2" t="n">
         <v>707945</v>
       </c>
-      <c r="BM2" t="n">
+      <c r="BW2" t="n">
+        <v>707945</v>
+      </c>
+      <c r="BX2" t="n">
+        <v>707945</v>
+      </c>
+      <c r="BY2" t="n">
+        <v>707945</v>
+      </c>
+      <c r="BZ2" t="n">
+        <v>707945</v>
+      </c>
+      <c r="CA2" t="n">
+        <v>707945</v>
+      </c>
+      <c r="CB2" t="n">
         <v>763519</v>
       </c>
-      <c r="BN2" t="n">
+      <c r="CC2" t="n">
         <v>763519</v>
       </c>
-      <c r="BO2" t="n">
+      <c r="CD2" t="n">
         <v>763519</v>
       </c>
-      <c r="BP2" t="n">
+      <c r="CE2" t="n">
         <v>763519</v>
       </c>
-      <c r="BQ2" t="n">
+      <c r="CF2" t="n">
         <v>763519</v>
       </c>
-      <c r="BR2" t="n">
+      <c r="CG2" t="n">
         <v>763519</v>
       </c>
-      <c r="BS2" t="n">
+      <c r="CH2" t="n">
         <v>763519</v>
       </c>
-      <c r="BT2" t="n">
+      <c r="CI2" t="n">
         <v>763519</v>
       </c>
-      <c r="BU2" t="n">
+      <c r="CJ2" t="n">
         <v>763519</v>
       </c>
-      <c r="BV2" t="n">
+      <c r="CK2" t="n">
+        <v>763519</v>
+      </c>
+      <c r="CL2" t="n">
+        <v>763519</v>
+      </c>
+      <c r="CM2" t="n">
+        <v>763519</v>
+      </c>
+      <c r="CN2" t="n">
+        <v>763519</v>
+      </c>
+      <c r="CO2" t="n">
+        <v>763519</v>
+      </c>
+      <c r="CP2" t="n">
         <v>811635</v>
       </c>
-      <c r="BW2" t="n">
+      <c r="CQ2" t="n">
         <v>811635</v>
       </c>
-      <c r="BX2" t="n">
+      <c r="CR2" t="n">
         <v>811635</v>
       </c>
-      <c r="BY2" t="n">
+      <c r="CS2" t="n">
         <v>811635</v>
       </c>
-      <c r="BZ2" t="n">
+      <c r="CT2" t="n">
         <v>811635</v>
       </c>
-      <c r="CA2" t="n">
+      <c r="CU2" t="n">
         <v>811635</v>
       </c>
-      <c r="CB2" t="n">
+      <c r="CV2" t="n">
         <v>811635</v>
       </c>
-      <c r="CC2" t="n">
+      <c r="CW2" t="n">
         <v>811635</v>
       </c>
-      <c r="CD2" t="n">
+      <c r="CX2" t="n">
         <v>811635</v>
       </c>
-      <c r="CE2" t="n">
+      <c r="CY2" t="n">
+        <v>811635</v>
+      </c>
+      <c r="CZ2" t="n">
+        <v>811635</v>
+      </c>
+      <c r="DA2" t="n">
+        <v>811635</v>
+      </c>
+      <c r="DB2" t="n">
+        <v>811635</v>
+      </c>
+      <c r="DC2" t="n">
+        <v>811635</v>
+      </c>
+      <c r="DD2" t="n">
         <v>881466</v>
       </c>
-      <c r="CF2" t="n">
+      <c r="DE2" t="n">
         <v>881466</v>
       </c>
-      <c r="CG2" t="n">
+      <c r="DF2" t="n">
         <v>881466</v>
       </c>
-      <c r="CH2" t="n">
+      <c r="DG2" t="n">
         <v>881466</v>
       </c>
-      <c r="CI2" t="n">
+      <c r="DH2" t="n">
         <v>881466</v>
       </c>
-      <c r="CJ2" t="n">
+      <c r="DI2" t="n">
         <v>881466</v>
       </c>
-      <c r="CK2" t="n">
+      <c r="DJ2" t="n">
         <v>881466</v>
       </c>
-      <c r="CL2" t="n">
+      <c r="DK2" t="n">
         <v>881466</v>
       </c>
-      <c r="CM2" t="n">
+      <c r="DL2" t="n">
         <v>881466</v>
       </c>
-      <c r="CN2" t="n">
+      <c r="DM2" t="n">
+        <v>881466</v>
+      </c>
+      <c r="DN2" t="n">
+        <v>881466</v>
+      </c>
+      <c r="DO2" t="n">
+        <v>881466</v>
+      </c>
+      <c r="DP2" t="n">
+        <v>881466</v>
+      </c>
+      <c r="DQ2" t="n">
+        <v>881466</v>
+      </c>
+      <c r="DR2" t="n">
         <v>921229</v>
       </c>
-      <c r="CO2" t="n">
+      <c r="DS2" t="n">
         <v>921229</v>
       </c>
-      <c r="CP2" t="n">
+      <c r="DT2" t="n">
         <v>921229</v>
       </c>
-      <c r="CQ2" t="n">
+      <c r="DU2" t="n">
         <v>921229</v>
       </c>
-      <c r="CR2" t="n">
+      <c r="DV2" t="n">
         <v>921229</v>
       </c>
-      <c r="CS2" t="n">
+      <c r="DW2" t="n">
         <v>921229</v>
       </c>
-      <c r="CT2" t="n">
+      <c r="DX2" t="n">
         <v>921229</v>
       </c>
-      <c r="CU2" t="n">
+      <c r="DY2" t="n">
         <v>921229</v>
       </c>
-      <c r="CV2" t="n">
+      <c r="DZ2" t="n">
         <v>921229</v>
       </c>
-      <c r="CW2" t="n">
+      <c r="EA2" t="n">
+        <v>921229</v>
+      </c>
+      <c r="EB2" t="n">
+        <v>921229</v>
+      </c>
+      <c r="EC2" t="n">
+        <v>921229</v>
+      </c>
+      <c r="ED2" t="n">
+        <v>921229</v>
+      </c>
+      <c r="EE2" t="n">
+        <v>921229</v>
+      </c>
+      <c r="EF2" t="n">
         <v>974436</v>
       </c>
-      <c r="CX2" t="n">
+      <c r="EG2" t="n">
         <v>974436</v>
       </c>
-      <c r="CY2" t="n">
+      <c r="EH2" t="n">
         <v>974436</v>
       </c>
-      <c r="CZ2" t="n">
+      <c r="EI2" t="n">
         <v>974436</v>
       </c>
-      <c r="DA2" t="n">
+      <c r="EJ2" t="n">
         <v>974436</v>
       </c>
-      <c r="DB2" t="n">
+      <c r="EK2" t="n">
         <v>974436</v>
       </c>
-      <c r="DC2" t="n">
+      <c r="EL2" t="n">
         <v>974436</v>
       </c>
-      <c r="DD2" t="n">
+      <c r="EM2" t="n">
         <v>974436</v>
       </c>
-      <c r="DE2" t="n">
+      <c r="EN2" t="n">
         <v>974436</v>
       </c>
-      <c r="DF2" t="n">
+      <c r="EO2" t="n">
+        <v>974436</v>
+      </c>
+      <c r="EP2" t="n">
+        <v>974436</v>
+      </c>
+      <c r="EQ2" t="n">
+        <v>974436</v>
+      </c>
+      <c r="ER2" t="n">
+        <v>974436</v>
+      </c>
+      <c r="ES2" t="n">
+        <v>974436</v>
+      </c>
+      <c r="ET2" t="n">
         <v>1054354.92</v>
       </c>
-      <c r="DG2" t="n">
+      <c r="EU2" t="n">
         <v>1054354.92</v>
       </c>
-      <c r="DH2" t="n">
+      <c r="EV2" t="n">
         <v>1054354.92</v>
       </c>
-      <c r="DI2" t="n">
+      <c r="EW2" t="n">
         <v>1054354.92</v>
       </c>
-      <c r="DJ2" t="n">
+      <c r="EX2" t="n">
         <v>1054354.92</v>
       </c>
-      <c r="DK2" t="n">
+      <c r="EY2" t="n">
         <v>1054354.92</v>
       </c>
-      <c r="DL2" t="n">
+      <c r="EZ2" t="n">
         <v>1054354.92</v>
       </c>
-      <c r="DM2" t="n">
+      <c r="FA2" t="n">
         <v>1054354.92</v>
       </c>
-      <c r="DN2" t="n">
+      <c r="FB2" t="n">
         <v>1054354.92</v>
       </c>
-      <c r="DO2" t="n">
+      <c r="FC2" t="n">
+        <v>1054354.92</v>
+      </c>
+      <c r="FD2" t="n">
+        <v>1054354.92</v>
+      </c>
+      <c r="FE2" t="n">
+        <v>1054354.92</v>
+      </c>
+      <c r="FF2" t="n">
+        <v>1054354.92</v>
+      </c>
+      <c r="FG2" t="n">
+        <v>1054354.92</v>
+      </c>
+      <c r="FH2" t="n">
         <v>1104228.3316495</v>
       </c>
-      <c r="DP2" t="n">
+      <c r="FI2" t="n">
         <v>1104228.3316495</v>
       </c>
-      <c r="DQ2" t="n">
+      <c r="FJ2" t="n">
         <v>1104228.3316495</v>
       </c>
-      <c r="DR2" t="n">
+      <c r="FK2" t="n">
         <v>1104228.3316495</v>
       </c>
-      <c r="DS2" t="n">
+      <c r="FL2" t="n">
         <v>1104228.3316495</v>
       </c>
-      <c r="DT2" t="n">
+      <c r="FM2" t="n">
         <v>1104228.3316495</v>
       </c>
-      <c r="DU2" t="n">
+      <c r="FN2" t="n">
         <v>1104228.3316495</v>
       </c>
-      <c r="DV2" t="n">
+      <c r="FO2" t="n">
         <v>1104228.3316495</v>
       </c>
-      <c r="DW2" t="n">
+      <c r="FP2" t="n">
         <v>1104228.3316495</v>
       </c>
-      <c r="DX2" t="n">
+      <c r="FQ2" t="n">
+        <v>1104228.3316495</v>
+      </c>
+      <c r="FR2" t="n">
+        <v>1104228.3316495</v>
+      </c>
+      <c r="FS2" t="n">
+        <v>1104228.3316495</v>
+      </c>
+      <c r="FT2" t="n">
+        <v>1104228.3316495</v>
+      </c>
+      <c r="FU2" t="n">
+        <v>1104228.3316495</v>
+      </c>
+      <c r="FV2" t="n">
         <v>1163290.2191602</v>
       </c>
-      <c r="DY2" t="n">
+      <c r="FW2" t="n">
         <v>1163290.2191602</v>
       </c>
-      <c r="DZ2" t="n">
+      <c r="FX2" t="n">
         <v>1163290.2191602</v>
       </c>
-      <c r="EA2" t="n">
+      <c r="FY2" t="n">
         <v>1163290.2191602</v>
       </c>
-      <c r="EB2" t="n">
+      <c r="FZ2" t="n">
         <v>1163290.2191602</v>
       </c>
-      <c r="EC2" t="n">
+      <c r="GA2" t="n">
         <v>1163290.2191602</v>
       </c>
-      <c r="ED2" t="n">
+      <c r="GB2" t="n">
         <v>1163290.2191602</v>
       </c>
-      <c r="EE2" t="n">
+      <c r="GC2" t="n">
         <v>1163290.2191602</v>
       </c>
-      <c r="EF2" t="n">
+      <c r="GD2" t="n">
         <v>1163290.2191602</v>
       </c>
-      <c r="EG2" t="n">
+      <c r="GE2" t="n">
+        <v>1163290.2191602</v>
+      </c>
+      <c r="GF2" t="n">
+        <v>1163290.2191602</v>
+      </c>
+      <c r="GG2" t="n">
+        <v>1163290.2191602</v>
+      </c>
+      <c r="GH2" t="n">
+        <v>1163290.2191602</v>
+      </c>
+      <c r="GI2" t="n">
+        <v>1163290.2191602</v>
+      </c>
+      <c r="GJ2" t="n">
         <v>1232505.29786395</v>
       </c>
-      <c r="EH2" t="n">
+      <c r="GK2" t="n">
         <v>1232505.29786395</v>
       </c>
-      <c r="EI2" t="n">
+      <c r="GL2" t="n">
         <v>1232505.29786395</v>
       </c>
-      <c r="EJ2" t="n">
+      <c r="GM2" t="n">
         <v>1232505.29786395</v>
       </c>
-      <c r="EK2" t="n">
+      <c r="GN2" t="n">
         <v>1232505.29786395</v>
       </c>
-      <c r="EL2" t="n">
+      <c r="GO2" t="n">
         <v>1232505.29786395</v>
       </c>
-      <c r="EM2" t="n">
+      <c r="GP2" t="n">
         <v>1232505.29786395</v>
       </c>
-      <c r="EN2" t="n">
+      <c r="GQ2" t="n">
         <v>1232505.29786395</v>
       </c>
-      <c r="EO2" t="n">
+      <c r="GR2" t="n">
         <v>1232505.29786395</v>
       </c>
-      <c r="EP2" t="n">
+      <c r="GS2" t="n">
+        <v>1232505.29786395</v>
+      </c>
+      <c r="GT2" t="n">
+        <v>1232505.29786395</v>
+      </c>
+      <c r="GU2" t="n">
+        <v>1232505.29786395</v>
+      </c>
+      <c r="GV2" t="n">
+        <v>1232505.29786395</v>
+      </c>
+      <c r="GW2" t="n">
+        <v>1232505.29786395</v>
+      </c>
+      <c r="GX2" t="n">
         <v>1307684.57121994</v>
       </c>
-      <c r="EQ2" t="n">
+      <c r="GY2" t="n">
         <v>1307684.57121994</v>
       </c>
-      <c r="ER2" t="n">
+      <c r="GZ2" t="n">
         <v>1307684.57121994</v>
       </c>
-      <c r="ES2" t="n">
+      <c r="HA2" t="n">
         <v>1307684.57121994</v>
       </c>
-      <c r="ET2" t="n">
+      <c r="HB2" t="n">
         <v>1307684.57121994</v>
       </c>
-      <c r="EU2" t="n">
+      <c r="HC2" t="n">
         <v>1307684.57121994</v>
       </c>
-      <c r="EV2" t="n">
+      <c r="HD2" t="n">
         <v>1307684.57121994</v>
       </c>
-      <c r="EW2" t="n">
+      <c r="HE2" t="n">
         <v>1307684.57121994</v>
       </c>
-      <c r="EX2" t="n">
+      <c r="HF2" t="n">
         <v>1307684.57121994</v>
       </c>
-      <c r="EY2" t="n">
+      <c r="HG2" t="n">
+        <v>1307684.57121994</v>
+      </c>
+      <c r="HH2" t="n">
+        <v>1307684.57121994</v>
+      </c>
+      <c r="HI2" t="n">
+        <v>1307684.57121994</v>
+      </c>
+      <c r="HJ2" t="n">
+        <v>1307684.57121994</v>
+      </c>
+      <c r="HK2" t="n">
+        <v>1307684.57121994</v>
+      </c>
+      <c r="HL2" t="n">
         <v>1311175.61502285</v>
       </c>
-      <c r="EZ2" t="n">
+      <c r="HM2" t="n">
         <v>1311175.61502285</v>
       </c>
-      <c r="FA2" t="n">
+      <c r="HN2" t="n">
         <v>1311175.61502285</v>
       </c>
-      <c r="FB2" t="n">
+      <c r="HO2" t="n">
         <v>1311175.61502285</v>
       </c>
-      <c r="FC2" t="n">
+      <c r="HP2" t="n">
         <v>1311175.61502285</v>
       </c>
-      <c r="FD2" t="n">
+      <c r="HQ2" t="n">
         <v>1311175.61502285</v>
       </c>
-      <c r="FE2" t="n">
+      <c r="HR2" t="n">
         <v>1311175.61502285</v>
       </c>
-      <c r="FF2" t="n">
+      <c r="HS2" t="n">
         <v>1311175.61502285</v>
       </c>
-      <c r="FG2" t="n">
+      <c r="HT2" t="n">
         <v>1311175.61502285</v>
       </c>
-      <c r="FH2" t="inlineStr"/>
+      <c r="HU2" t="n">
+        <v>1311175.61502285</v>
+      </c>
+      <c r="HV2" t="n">
+        <v>1311175.61502285</v>
+      </c>
+      <c r="HW2" t="n">
+        <v>1311175.61502285</v>
+      </c>
+      <c r="HX2" t="n">
+        <v>1311175.61502285</v>
+      </c>
+      <c r="HY2" t="n">
+        <v>1311175.61502285</v>
+      </c>
+      <c r="HZ2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
